--- a/department/loi-import-de-tai-thuc-tap.xlsx
+++ b/department/loi-import-de-tai-thuc-tap.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>Năm học</t>
   </si>
@@ -29,28 +29,139 @@
     <t>Mã GVHD</t>
   </si>
   <si>
+    <t>Tên SV</t>
+  </si>
+  <si>
+    <t>Mã SV</t>
+  </si>
+  <si>
+    <t>Lớp</t>
+  </si>
+  <si>
+    <t>SĐT</t>
+  </si>
+  <si>
+    <t>Cơ sở TT</t>
+  </si>
+  <si>
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>2020-2021</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Đề tài test</t>
+    <t>2023-2024</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>tôi - 1,2; hơn nữa…"he(em)[bạn]{} &amp; *tác giả.</t>
   </si>
   <si>
     <t>Thực tập chuyên ngành</t>
   </si>
   <si>
-    <t>MTI05</t>
+    <t>MTI15</t>
+  </si>
+  <si>
+    <t>Cam Trọng Hiếu</t>
+  </si>
+  <si>
+    <t>654661</t>
+  </si>
+  <si>
+    <t>K65CNTTA</t>
+  </si>
+  <si>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>công ty cổ phần GoGroup</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
     <t>Tên đề tài không được chứa ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Xây dựng website đặt phòng khách sạn</t>
+  </si>
+  <si>
+    <t>MTI12</t>
+  </si>
+  <si>
+    <t>Trần Sỹ Hà</t>
+  </si>
+  <si>
+    <t>645794</t>
+  </si>
+  <si>
+    <t>K64CNTTA</t>
+  </si>
+  <si>
+    <t>0814791595</t>
+  </si>
+  <si>
+    <t>Công ty CP phần mềm quản trị doanh nghiệp CYBERSOFT</t>
+  </si>
+  <si>
+    <t>Bạn không có quyền thêm đề tài TT cho GVHD khác</t>
+  </si>
+  <si>
+    <t>Phát triển ứng dụng trắc nghiệm hỗ trợ học tập</t>
+  </si>
+  <si>
+    <t>Nguyễn Trung Phong</t>
+  </si>
+  <si>
+    <t>642264</t>
+  </si>
+  <si>
+    <t>0867866911</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Công nghệ MaiA</t>
+  </si>
+  <si>
+    <t>Xây dựng website quản lý hiệu sách</t>
+  </si>
+  <si>
+    <t>Đoàn Nông Bình</t>
+  </si>
+  <si>
+    <t>653721</t>
+  </si>
+  <si>
+    <t>0983960340</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần Gogroup</t>
+  </si>
+  <si>
+    <t>Xây dựng website quản lý dự án</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Đăng</t>
+  </si>
+  <si>
+    <t>651094</t>
+  </si>
+  <si>
+    <t>0358448342</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần công nghệ FoxAI</t>
+  </si>
+  <si>
+    <t>Xây dựng website bán điện thoại di động</t>
+  </si>
+  <si>
+    <t>Tạ Đình Tuấn</t>
+  </si>
+  <si>
+    <t>650037</t>
+  </si>
+  <si>
+    <t>0353419602</t>
   </si>
 </sst>
 </file>
@@ -124,7 +235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -149,25 +260,230 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s" s="1">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
